--- a/data/trans_bre/CONS_PSICO-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSICO-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>335,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,86%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,76; 3,44</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 13,05</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 4,19</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 6,42</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-58,27; 407,15</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,2; 226,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,74; 110,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>254,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>29,83%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 3,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 6,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 5,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,0</t>
+          <t>-2,52; 8,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,69; 245,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,18; 1860,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,24; 210,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,39; 159,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>169,51%</t>
+          <t>76,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>307,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-61,61%</t>
+          <t>11,59%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 6,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 18,22</t>
+          <t>0,28; 7,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,03; 12,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,12</t>
+          <t>-4,87; 6,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,34; 397,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,47; 206,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>119,01; 694,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-93,51; 49,5</t>
+          <t>-38,98; 92,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,86%</t>
+          <t>116,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>271,1%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>97,25%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,54</t>
+          <t>-0,76; 5,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 6,86</t>
+          <t>2,43; 16,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,57</t>
+          <t>2,32; 10,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,99</t>
+          <t>4,6; 19,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,38; 202,35</t>
+          <t>-8,26; 89,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 119,29</t>
+          <t>20,08; 504,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-86,84; 5478,77</t>
+          <t>22,84; 176,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 241,13</t>
+          <t>23,93; 207,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>15,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>102,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>138,67%</t>
+          <t>61,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>53,91%</t>
+          <t>99,49%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,18</t>
+          <t>-0,58; 6,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 8,07</t>
+          <t>7,64; 17,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,43</t>
+          <t>2,47; 13,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,5</t>
+          <t>5,85; 23,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 293,27</t>
+          <t>-4,95; 71,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 135,32</t>
+          <t>47,31; 174,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 613,05</t>
+          <t>13,2; 131,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 253,44</t>
+          <t>22,91; 199,52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>14,77</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>283,29%</t>
+          <t>99,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>68,54%</t>
+          <t>129,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>117,11%</t>
+          <t>92,14%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,06</t>
+          <t>6,42; 14,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 6,82</t>
+          <t>-7,75; 17,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,69</t>
+          <t>9,71; 19,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,5</t>
+          <t>4,0; 24,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>110,27; 671,52</t>
+          <t>54,45; 175,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 98,4</t>
+          <t>-55,42; 167,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,75; 153,62</t>
+          <t>73,02; 207,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,47; 262,32</t>
+          <t>10,74; 209,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>15,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>14,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>13,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>22,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>66,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>63,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>75,65%</t>
+          <t>66,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>83,25%</t>
         </is>
       </c>
     </row>
@@ -1268,49 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 9,24</t>
+          <t>9,67; 20,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 19,69</t>
+          <t>6,7; 21,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,72</t>
+          <t>7,36; 18,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,61</t>
+          <t>11,7; 32,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,91; 159,01</t>
+          <t>36,62; 100,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,61; 214,71</t>
+          <t>24,43; 119,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,87; 152,71</t>
+          <t>32,07; 105,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 86,87</t>
+          <t>34,67; 163,89</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,77</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>109,39%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>82,39%</t>
         </is>
       </c>
     </row>
@@ -1368,366 +1368,63 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 12,75</t>
+          <t>5,11; 8,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,88; 24,36</t>
+          <t>3,5; 11,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,36; 17,04</t>
+          <t>6,24; 9,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,81</t>
+          <t>7,62; 13,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,17; 122,72</t>
+          <t>53,11; 99,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,48; 193,88</t>
+          <t>48,54; 196,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>67,41; 166,28</t>
+          <t>66,94; 125,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,01; 76,25</t>
+          <t>51,28; 117,91</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>14,03</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>14,77</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>10,26</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>12,06</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>112,55%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>92,14%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>83,23%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>128,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>8,94; 18,75</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 24,02</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 17,57</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>8,59; 15,44</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>59,82; 176,05</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>4,49; 210,14</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; 154,16</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>78,42; 202,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>14,67</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>22,05</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>14,64</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>15,7</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>72,6%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>83,25%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>63,58%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>70,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>9,29; 19,93</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>10,88; 31,63</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>9,32; 19,82</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>10,97; 20,69</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>40,98; 114,03</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>33,09; 163,35</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>34,68; 98,98</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>43,67; 103,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>8,48</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>10,76</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>8,65</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,33</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>86,17%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>82,58%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>97,38%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>79,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>6,69; 10,16</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>7,71; 13,68</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 10,44</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 7,51</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>62,61; 111,93</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>53,04; 117,65</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>72,37; 130,62</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>61,59; 101,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/CONS_PSICO-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSICO-Edad-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,44</t>
+          <t>-2,53; 2,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 13,05</t>
+          <t>-0,72; 12,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 6,42</t>
+          <t>-8,95; 6,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,27; 407,15</t>
+          <t>-65,46; 214,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 110,53</t>
+          <t>-68,52; 105,77</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,72</t>
+          <t>-1,55; 2,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 6,94</t>
+          <t>-0,14; 6,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 8,23</t>
+          <t>-2,87; 7,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,69; 245,45</t>
+          <t>-52,06; 173,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 1860,04</t>
+          <t>-41,67; 1895,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 159,24</t>
+          <t>-27,26; 153,85</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>158,99%</t>
+          <t>79,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,47</t>
+          <t>-0,26; 5,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 7,54</t>
+          <t>0,26; 7,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 6,27</t>
+          <t>-4,33; 6,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,34; 397,88</t>
+          <t>-11,28; 250,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 206,24</t>
+          <t>-0,57; 219,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 92,53</t>
+          <t>-33,89; 98,33</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,72</t>
+          <t>-1,22; 4,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 16,0</t>
+          <t>2,37; 16,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 19,76</t>
+          <t>4,62; 20,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 89,55</t>
+          <t>-13,13; 74,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 504,61</t>
+          <t>15,76; 618,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 207,2</t>
+          <t>27,61; 214,42</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,71</t>
+          <t>0,71; 7,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 17,36</t>
+          <t>7,97; 18,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 23,73</t>
+          <t>7,09; 25,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 71,57</t>
+          <t>5,63; 93,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,31; 174,47</t>
+          <t>52,56; 181,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,91; 199,52</t>
+          <t>33,64; 223,69</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,42; 14,34</t>
+          <t>6,37; 14,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 17,89</t>
+          <t>-9,04; 18,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,0; 24,02</t>
+          <t>4,24; 24,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,45; 175,26</t>
+          <t>46,62; 156,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 167,61</t>
+          <t>-65,27; 170,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,74; 209,92</t>
+          <t>17,31; 213,66</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,54</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>66,94%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,67; 20,3</t>
+          <t>10,06; 20,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,7; 21,37</t>
+          <t>7,01; 20,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,7; 32,03</t>
+          <t>10,89; 31,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,62; 100,65</t>
+          <t>39,72; 105,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,43; 119,1</t>
+          <t>26,3; 113,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,67; 163,89</t>
+          <t>32,69; 150,78</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>73,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,26</t>
+          <t>5,11; 7,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,5; 11,13</t>
+          <t>3,38; 10,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,62; 13,67</t>
+          <t>7,76; 13,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,11; 99,76</t>
+          <t>54,46; 99,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,54; 196,66</t>
+          <t>43,24; 173,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,28; 117,91</t>
+          <t>52,89; 115,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_PSICO-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSICO-Edad-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>349,15%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-9,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>1,69%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>335,26%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>15,32%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,86%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,45; 11,16</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 6,11</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 4,19</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-2,53; 2,4</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 12,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 4,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 6,11</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-68,52; 105,77</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-55,2; 226,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-65,46; 214,06</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-55,2; 226,69</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-68,52; 105,77</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,55</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>150,89%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29,83%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38,83%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>22,44%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>254,64%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>38,83%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,83%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,37; 6,35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 7,98</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 5,66</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-1,55; 2,71</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 6,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 5,66</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 7,98</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-28,47; 789,74</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-27,26; 153,85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-33,24; 210,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-52,06; 173,91</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-41,67; 1895,3</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-33,24; 210,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-27,26; 153,85</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8,41</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,63</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,26</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,41</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>90,85%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>307,82%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>79,51%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>76,69%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>307,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11,59%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,72; 7,76</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 6,59</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 12,09</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,26; 5,37</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 7,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 12,09</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 6,59</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>8,18; 239,46</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-33,89; 98,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>119,01; 694,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-11,28; 250,42</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 219,19</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>119,01; 694,47</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-33,89; 98,33</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11,9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,34</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,09</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,9</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>97,25%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>84,96%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>17,26%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>116,24%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>84,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>97,25%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,75; 6,7</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 20,23</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 10,14</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-1,22; 4,7</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 16,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 10,14</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 20,23</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-13,23; 79,55</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27,61; 214,42</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 176,63</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-13,13; 74,53</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>15,76; 618,73</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>22,84; 176,63</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>27,61; 214,42</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>13,14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,77</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,77</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>4,08</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,77</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,77</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>108,22%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>99,49%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>61,43%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>39,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>102,73%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>61,43%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>99,49%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>8,54; 18,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,09; 25,68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 13,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>0,71; 7,74</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,97; 18,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 13,3</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,09; 25,68</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>55,87; 186,29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33,64; 223,69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 131,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>5,63; 93,5</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>52,56; 181,5</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>13,2; 131,7</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>33,64; 223,69</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>17,38</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14,77</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14,59</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>10,73</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,68</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14,59</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>14,77</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>154,59%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>92,14%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>129,91%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>93,19%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>31,36%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>129,91%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>92,14%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>12,2; 22,52</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 24,03</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 19,54</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>6,37; 14,81</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 18,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 19,54</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,24; 24,03</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>84,23; 250,04</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 213,66</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>73,02; 207,36</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>46,62; 156,21</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-65,27; 170,43</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>73,02; 207,36</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17,31; 213,66</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>14,65</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22,05</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13,33</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>15,39</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>14,18</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>13,33</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>22,05</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>65,25%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83,25%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>66,02%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>68,92%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>63,42%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>66,02%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>83,25%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,52; 21,22</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 31,36</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 18,41</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>10,06; 20,31</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 20,67</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 18,41</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>10,89; 31,36</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>27,7; 116,78</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>32,69; 150,78</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32,07; 105,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>39,72; 105,91</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>26,3; 113,12</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>32,07; 105,37</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>32,69; 150,78</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>8,69</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,77</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,05</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>6,45</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>8,05</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>10,77</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>98,14%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>82,39%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>96,14%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>73,29%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>98,97%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>96,14%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>82,39%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>6,81; 10,53</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 13,75</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 9,64</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>5,11; 7,94</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 10,91</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 9,64</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 13,75</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>68,95; 132,67</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>52,89; 115,74</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>66,94; 125,07</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>54,46; 99,5</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>43,24; 173,29</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>66,94; 125,07</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>52,89; 115,74</t>
         </is>
       </c>
     </row>
